--- a/output/DB.xlsx
+++ b/output/DB.xlsx
@@ -20,13 +20,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +53,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,14 +421,93 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LU18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>gg</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LU18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LU18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -434,14 +518,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>gg</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -479,7 +578,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
           <t>TARGET</t>
